--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pomc-Oprm1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pomc-Oprm1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Oprm1</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -522,25 +525,25 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.171359</v>
+        <v>2.862146333333333</v>
       </c>
       <c r="H2">
-        <v>3.514077</v>
+        <v>8.586439</v>
       </c>
       <c r="I2">
-        <v>0.9475013771363814</v>
+        <v>0.9778268096017091</v>
       </c>
       <c r="J2">
-        <v>0.9475013771363814</v>
+        <v>0.9778268096017091</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -549,10 +552,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.049158666666667</v>
+        <v>0.07215833333333334</v>
       </c>
       <c r="N2">
-        <v>3.147476</v>
+        <v>0.216475</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -561,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>1.228941446628</v>
+        <v>0.2065277091694445</v>
       </c>
       <c r="R2">
-        <v>11.060473019652</v>
+        <v>1.858749382525</v>
       </c>
       <c r="S2">
-        <v>0.9475013771363814</v>
+        <v>0.9778268096017091</v>
       </c>
       <c r="T2">
-        <v>0.9475013771363814</v>
+        <v>0.9778268096017091</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,7 +587,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,10 +602,10 @@
         <v>0.194706</v>
       </c>
       <c r="I3">
-        <v>0.0524986228636186</v>
+        <v>0.02217319039829088</v>
       </c>
       <c r="J3">
-        <v>0.0524986228636186</v>
+        <v>0.02217319039829088</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -611,10 +614,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>1.049158666666667</v>
+        <v>0.07215833333333334</v>
       </c>
       <c r="N3">
-        <v>3.147476</v>
+        <v>0.216475</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -623,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.06809249578399999</v>
+        <v>0.00468322015</v>
       </c>
       <c r="R3">
-        <v>0.6128324620559999</v>
+        <v>0.04214898135</v>
       </c>
       <c r="S3">
-        <v>0.0524986228636186</v>
+        <v>0.02217319039829088</v>
       </c>
       <c r="T3">
-        <v>0.0524986228636186</v>
+        <v>0.02217319039829088</v>
       </c>
     </row>
   </sheetData>
